--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_123.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_123.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,632 +488,658 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.09458128078817735</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab', 'Ab'], ['Bb:7', 'Eb:7', 'Ab']]</t>
-        </is>
+          <t>isophonics_194</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_59</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1005656819610308</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab:maj', 'Ab/7'], ['Bb:7', 'Eb:7', 'Ab:maj']]</t>
+          <t>[['G', 'D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(47.0, 47.79), (14.4, 16.43)]</t>
+          <t>[['C/5', 'G', 'C', 'G/3']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(54.072, 59.053), (37.633, 41.753)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:02:22.379117', '0:02:29.240614')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:27.476822', '0:00:36.159841')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_266</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_142</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2380952380952381</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G/3', 'A', 'G']]</t>
-        </is>
+          <t>jaah_73</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>jaah_75</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.03352065463866706</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['Bb:maj/9', 'C', 'Bb:maj/9']]</t>
+          <t>[['C:7', 'C:7', 'F:7', 'F:7']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(221.793378, 229.908752)]</t>
+          <t>[['F:7', 'F:7', 'Bb:7', 'Bb:7']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(65.235911, 67.629363)]</t>
+          <t>[('0:00:24.250000', '0:00:27.720000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:6Pq9MmkDQYZiiCDpxnvrf6</t>
+          <t>[('0:00:11.420000', '0:00:18.960000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_78</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_45</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1515151515151515</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['D:7/F#', 'G:maj', 'E:min7/G']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(113.02, 114.76)]</t>
+          <t>[['F:7', 'Bb', 'G:min7']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(75.56, 95.68)]</t>
+          <t>[('0:01:06.340000', '0:01:09.900000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:15.539000', '0:00:22.860000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_55</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1954545454545454</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['E', 'A:7', 'E'], ['A', 'E', 'E'], ['E', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_63</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_167</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1039473684210526</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C', 'F:7', 'C'], ['F', 'C', 'C'], ['C', 'C', 'F']]</t>
+          <t>[['F/A', 'C:7/G', 'F/A']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(21.737596, 29.7717), (18.010793, 22.457415), (122.976598, 130.383764)]</t>
+          <t>[['C/5', 'G:7', 'C/5']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(5.42, 9.23), (37.61, 38.9), (36.0, 37.28)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:04:31.500000', '0:04:33.280000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:08.204625', '0:00:15.716281')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_151</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2444444444444444</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F', 'C/3', 'F', 'C/3']]</t>
-        </is>
+          <t>isophonics_266</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>jaah_49</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.07682425488180883</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['Bb', 'F', 'Bb', 'F']]</t>
+          <t>[['A', 'A', 'A/b7']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(76.132993, 78.06481)]</t>
+          <t>[['Bb', 'Bb', 'Bb']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(22.564557, 28.578526)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:00:36.173061', '0:00:41.861950')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:45.540000', '0:00:47.950000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:6Pq9MmkDQYZiiCDpxnvrf6</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_23</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.07459239130434782</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Bb', 'F:7']]</t>
-        </is>
+          <t>jaah_52</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5365853658536586</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:maj/B', 'D:7']]</t>
+          <t>[['F', 'Bb', 'F']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(15.25, 22.53)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(18.92, 21.32)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:02.530000', '0:01:06.230000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1613636363636363</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C/G', 'G:7', 'C'], ['C', 'C/G', 'G:7']]</t>
-        </is>
+          <t>isophonics_15</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj'], ['A:maj', 'A:maj', 'E:7/G#']]</t>
+          <t>[['C', 'F', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(262.92, 266.9), (261.68, 264.16)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(20.56, 23.94), (9.4, 16.5)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:01:10.203514', '0:01:32.970680')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:55.580000', '0:01:06.200000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_120</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2125874125874126</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(45.48, 56.6)]</t>
+          <t>[['A#:maj', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(2.6, 5.12)]</t>
+          <t>[('0:01:04.520000', '0:01:06.820000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:05.800000', '0:00:15.900000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_30</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2375</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['E:maj', 'B:7', 'E:maj']]</t>
-        </is>
+          <t>isophonics_107</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_162</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3666666666666667</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>[['E', 'E', 'A', 'E'], ['E', 'A', 'E', 'E']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(0.26, 7.34)]</t>
+          <t>[['A', 'A', 'D', 'A'], ['A', 'D', 'A', 'A']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(12.51, 13.91)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:02:02.976598', '0:02:14.098957'), ('0:00:15.027029', '0:00:22.457415')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:34.290634', '0:00:43.926916'), ('0:00:28.450816', '0:00:40.095623')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_275</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2196969696969697</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G']]</t>
-        </is>
+          <t>isophonics_140</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_58</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.496031746031746</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>[['C', 'G', 'D', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(8.158789, 22.58999)]</t>
+          <t>[['F', 'C', 'G', 'F', 'C']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(69.36, 73.2)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+          <t>[('0:00:59.224321', '0:01:09.152241')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:41.895260', '0:00:59.802639')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_57</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2192982456140351</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['B', 'E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_212</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_56</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'C', 'G']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(27.840748, 41.263102)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(19.518117, 24.661337)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:13.980000', '0:00:18.160000'), ('0:00:23.460000', '0:00:26.480000'), ('0:00:18.840000', '0:00:20.320000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:12.400000', '0:00:16.560000'), ('0:00:21.880000', '0:00:24.860000'), ('0:00:17.200000', '0:00:18.680000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2083333333333333</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_91</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_141</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(11.384, 18.318)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(83.34, 87.64)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:48.320000', '0:01:46.760000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:47.860000', '0:01:35.840000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_74</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_70</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.03620823620823621</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F:min7', 'Bb:7', 'Eb', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_34</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_66</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['Gb:maj6', 'Ab:7', 'Db', 'Db']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(17.68, 19.25)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(37.75, 41.1)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:14.160000', '0:01:35.780000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:14.760000', '0:01:42.460000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_298</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_231</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.4004237288135593</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'D'], ['D', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'D'], ['D/5', 'G', 'C']]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(3.117845, 14.158934), (11.337709, 19.847823)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(9.236303, 12.162018), (38.435396, 43.311587)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:01:58.780000', '0:02:06.080000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:01:40.240000', '0:01:44.560000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_85</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2153846153846154</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:min/A', 'A:7', 'D:min'], ['D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:7', 'D#:min'], ['D#:min', 'A#:maj', 'D#:min']]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(109.52, 114.2), (1.26, 5.44)]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(9.1, 13.86), (0.78, 5.98)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:00.560000', '0:00:25.400000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:00.380000', '0:00:21.840000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_1</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(19.14, 24.78)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(70.98, 87.2)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
